--- a/data/trans_bre/P24_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>267,51%</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>656,01%</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>458,39%</t>
+          <t>267,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>590,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>144,46%</t>
+          <t>427,66%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>223,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>144,13%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>140,95%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,85</t>
+          <t>0,11; 7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,32</t>
+          <t>1,3; 9,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,88</t>
+          <t>1,88; 9,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,73</t>
+          <t>-3,63; 5,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 16,81</t>
+          <t>0,87; 12,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,27; —</t>
+          <t>-2,18; 16,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,59; 17,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-40,08; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,36; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-63,41; —</t>
-        </is>
-      </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 750,24</t>
+          <t>16,44; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-75,95; 748,01</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 1499,96</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 903,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 559,95</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>11,23</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,04</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>116,21%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>805,71%</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>109,37%</t>
+          <t>116,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>338,65%</t>
+          <t>839,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>236,08%</t>
+          <t>109,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>311,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>280,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>236,11%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>567,77%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,09</t>
+          <t>-0,9; 4,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,83</t>
+          <t>1,94; 9,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,05</t>
+          <t>-0,01; 10,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,57</t>
+          <t>2,77; 11,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 12,43</t>
+          <t>4,61; 18,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,69; —</t>
+          <t>0,93; 11,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>5,79; 17,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-64,65; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 365,59</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>70,72; 1441,08</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1176,03</t>
+          <t>-7,0; 338,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56,04; 1417,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 939,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; 1215,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>64,62; —</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,29</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4,96</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>110,19%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>659,6%</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>131,95%</t>
+          <t>110,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>156,17%</t>
+          <t>573,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100,31%</t>
+          <t>141,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>150,69%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>100,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>198,53%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 7,66</t>
+          <t>0,26; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,68</t>
+          <t>2,16; 8,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,02</t>
+          <t>0,35; 6,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,74</t>
+          <t>1,01; 7,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,09</t>
+          <t>-0,15; 10,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 373,03</t>
+          <t>-0,02; 10,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,37; —</t>
+          <t>5,02; 17,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 604,47</t>
+          <t>-9,05; 390,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,63; 529,65</t>
+          <t>61,83; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 368,63</t>
+          <t>3,34; 600,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 418,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 277,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 338,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>55,19; 516,46</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,93</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>177,04%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>159,17%</t>
+          <t>177,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>176,39%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>172,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>172,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88,59%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>71,52%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>44,22%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,89</t>
+          <t>1,04; 7,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 6,51</t>
+          <t>-5,5; 6,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,81</t>
+          <t>2,55; 9,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,06</t>
+          <t>2,22; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 12,17</t>
+          <t>-2,97; 12,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 567,64</t>
+          <t>-2,63; 11,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 220,17</t>
+          <t>-1,55; 10,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,41; 393,18</t>
+          <t>18,34; 599,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,63; 476,56</t>
+          <t>-53,54; 196,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 226,62</t>
+          <t>44,65; 466,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30,78; 445,4</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,17; 279,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,7; 218,52</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 162,89</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,4</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>217,41%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>198,69%</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>217,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>104,83%</t>
+          <t>177,39%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>-8,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>96,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>142,31%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,9</t>
+          <t>-0,11; 6,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,46</t>
+          <t>0,71; 9,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,97</t>
+          <t>-7,96; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,53</t>
+          <t>0,87; 10,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 13,58</t>
+          <t>2,56; 15,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 1372,94</t>
+          <t>0,22; 14,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 778,12</t>
+          <t>0,16; 14,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,75; 85,96</t>
+          <t>-41,02; 1291,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,62; 277,43</t>
+          <t>-8,03; 686,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 172,19</t>
+          <t>-63,81; 95,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 290,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 386,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 185,21</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 145,12</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,73</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>214,34%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>204,45%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>112,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>170,55%</t>
+          <t>197,35%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>96,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>183,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>170,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>113,22%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,14</t>
+          <t>1,97; 10,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 9,74</t>
+          <t>0,17; 11,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,78</t>
+          <t>3,44; 12,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 10,74</t>
+          <t>-1,29; 13,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 16,51</t>
+          <t>4,44; 20,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,75; 842,79</t>
+          <t>1,55; 15,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 457,36</t>
+          <t>3,63; 21,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,73; 616,49</t>
+          <t>22,7; 760,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 314,3</t>
+          <t>-12,71; 448,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,69; 690,05</t>
+          <t>42,46; 544,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,31; 345,46</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35,68; 526,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>12,78; 719,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 306,65</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,77</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>179,1%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>180,88%</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>125,86%</t>
+          <t>179,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>135,63%</t>
+          <t>178,79%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>109,61%</t>
+          <t>124,27%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>137,25%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>145,83%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>109,62%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>122,1%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,58</t>
+          <t>2,49; 5,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,22</t>
+          <t>2,7; 6,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,3</t>
+          <t>2,81; 6,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,06</t>
+          <t>3,33; 7,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,56</t>
+          <t>5,89; 11,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,6; 328,14</t>
+          <t>4,18; 9,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,8; 364,54</t>
+          <t>6,83; 12,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,87; 211,56</t>
+          <t>85,32; 319,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>58,23; 234,68</t>
+          <t>62,91; 343,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,34; 185,75</t>
+          <t>59,74; 224,42</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 227,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>70,61; 233,57</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>52,17; 195,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>71,04; 193,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
